--- a/database_struct/imports_logger_import.xlsx
+++ b/database_struct/imports_logger_import.xlsx
@@ -1,28 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.astrom\OneDrive - NINA\Projects\Seatrack\seatrack-db\database_struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="imports_logger_import"/>
+    <sheet name="imports_logger_import" sheetId="1" r:id="rId1"/>
+    <sheet name="logger_importV2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="imports_logger_import">'imports_logger_import'!$A$1:$AM$1</definedName>
+    <definedName name="imports_logger_import">imports_logger_import!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>import_time</t>
+  </si>
+  <si>
+    <t>import_type</t>
+  </si>
+  <si>
+    <t>logger_id</t>
+  </si>
+  <si>
+    <t>startdate_gmt</t>
+  </si>
+  <si>
+    <t>starttime_gmt</t>
+  </si>
+  <si>
+    <t>logging_mode</t>
+  </si>
+  <si>
+    <t>started_by</t>
+  </si>
+  <si>
+    <t>started_where</t>
+  </si>
+  <si>
+    <t>days_delayed</t>
+  </si>
+  <si>
+    <t>programmed_gmt_date</t>
+  </si>
+  <si>
+    <t>programmed_gmt_time</t>
+  </si>
+  <si>
+    <t>intended_species</t>
+  </si>
+  <si>
+    <t>intended_location</t>
+  </si>
+  <si>
+    <t>intended_deployer</t>
+  </si>
+  <si>
+    <t>individ_id</t>
+  </si>
+  <si>
+    <t>logger_fate</t>
+  </si>
+  <si>
+    <t>deployment_species</t>
+  </si>
+  <si>
+    <t>deployment_location</t>
+  </si>
+  <si>
+    <t>deployment_date</t>
+  </si>
+  <si>
+    <t>logger_mount_method</t>
+  </si>
+  <si>
+    <t>attribute_name</t>
+  </si>
+  <si>
+    <t>retrieval_type</t>
+  </si>
+  <si>
+    <t>retrieval_location</t>
+  </si>
+  <si>
+    <t>retrieval_date</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>scull</t>
+  </si>
+  <si>
+    <t>tarsus</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>breeding_stage</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>chicks</t>
+  </si>
+  <si>
+    <t>hatching_success</t>
+  </si>
+  <si>
+    <t>breeding_success</t>
+  </si>
+  <si>
+    <t>breeding_success_criterion</t>
+  </si>
+  <si>
+    <t>data_responsible</t>
+  </si>
+  <si>
+    <t>back_on_nest_date</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>observation_location</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>testmode</t>
+  </si>
+  <si>
+    <t>Jens Åström</t>
+  </si>
+  <si>
+    <t>Buvika</t>
+  </si>
+  <si>
+    <t>testspecies</t>
+  </si>
+  <si>
+    <t>testlocation</t>
+  </si>
+  <si>
+    <t>testmethod</t>
+  </si>
+  <si>
+    <t>testattribute</t>
+  </si>
+  <si>
+    <t>testtype</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,14 +202,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -101,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,210 +543,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>import_time</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>import_type</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>logger_id</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>startdate_gmt</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>starttime_gmt</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>logging_mode</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>started_by</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>started_where</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>days_delayed</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>programmed_gmt_date</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>programmed_gmt_time</t>
-        </is>
-      </c>
-      <c r="M1" s="0" t="inlineStr">
-        <is>
-          <t>intended_species</t>
-        </is>
-      </c>
-      <c r="N1" s="0" t="inlineStr">
-        <is>
-          <t>intended_location</t>
-        </is>
-      </c>
-      <c r="O1" s="0" t="inlineStr">
-        <is>
-          <t>intended_deployer</t>
-        </is>
-      </c>
-      <c r="P1" s="0" t="inlineStr">
-        <is>
-          <t>individ_id</t>
-        </is>
-      </c>
-      <c r="Q1" s="0" t="inlineStr">
-        <is>
-          <t>logger_fate</t>
-        </is>
-      </c>
-      <c r="R1" s="0" t="inlineStr">
-        <is>
-          <t>deployment_species</t>
-        </is>
-      </c>
-      <c r="S1" s="0" t="inlineStr">
-        <is>
-          <t>deployment_location</t>
-        </is>
-      </c>
-      <c r="T1" s="0" t="inlineStr">
-        <is>
-          <t>deployment_date</t>
-        </is>
-      </c>
-      <c r="U1" s="0" t="inlineStr">
-        <is>
-          <t>logger_mount_method</t>
-        </is>
-      </c>
-      <c r="V1" s="0" t="inlineStr">
-        <is>
-          <t>attribute_name</t>
-        </is>
-      </c>
-      <c r="W1" s="0" t="inlineStr">
-        <is>
-          <t>retrieval_type</t>
-        </is>
-      </c>
-      <c r="X1" s="0" t="inlineStr">
-        <is>
-          <t>retrieval_location</t>
-        </is>
-      </c>
-      <c r="Y1" s="0" t="inlineStr">
-        <is>
-          <t>retrieval_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="0" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="AA1" s="0" t="inlineStr">
-        <is>
-          <t>scull</t>
-        </is>
-      </c>
-      <c r="AB1" s="0" t="inlineStr">
-        <is>
-          <t>tarsus</t>
-        </is>
-      </c>
-      <c r="AC1" s="0" t="inlineStr">
-        <is>
-          <t>wing</t>
-        </is>
-      </c>
-      <c r="AD1" s="0" t="inlineStr">
-        <is>
-          <t>breeding_stage</t>
-        </is>
-      </c>
-      <c r="AE1" s="0" t="inlineStr">
-        <is>
-          <t>eggs</t>
-        </is>
-      </c>
-      <c r="AF1" s="0" t="inlineStr">
-        <is>
-          <t>chicks</t>
-        </is>
-      </c>
-      <c r="AG1" s="0" t="inlineStr">
-        <is>
-          <t>hatching_success</t>
-        </is>
-      </c>
-      <c r="AH1" s="0" t="inlineStr">
-        <is>
-          <t>breeding_success</t>
-        </is>
-      </c>
-      <c r="AI1" s="0" t="inlineStr">
-        <is>
-          <t>breeding_success_criterion</t>
-        </is>
-      </c>
-      <c r="AJ1" s="0" t="inlineStr">
-        <is>
-          <t>data_responsible</t>
-        </is>
-      </c>
-      <c r="AK1" s="0" t="inlineStr">
-        <is>
-          <t>back_on_nest_date</t>
-        </is>
-      </c>
-      <c r="AL1" s="0" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="AM1" s="0" t="inlineStr">
-        <is>
-          <t>observation_location</t>
-        </is>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B1E9C-D0A7-43AD-9FA8-4C1C5C8B0E41}">
+  <dimension ref="A1:AL3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>42910.416666666664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42887.416666666664</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42887.416666666664</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2">
+        <v>42926</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="2">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42889</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42889</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42917</v>
+      </c>
+      <c r="K3" s="1">
+        <v>42917.416666666664</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="2">
+        <v>43291</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2">
+        <v>43374</v>
       </c>
     </row>
   </sheetData>
